--- a/src/apps/bid_record/extracted_data/GEM_2025_B_6512544.xlsx
+++ b/src/apps/bid_record/extracted_data/GEM_2025_B_6512544.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Multifunction Machine MFM V2 Q2 3 0 Minimum Average Annual Turnover of the bidder For 3 Years 1 Lakh s 3 0 OEM Average Turnover Last 3 Years 1 Lakh s 56 Years of Past Experience Required for samesimilar service 1 Year s</t>
+          <t>Multifunction Machine MFM V2 Q2</t>
         </is>
       </c>
     </row>
